--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +537,40 @@
         <v>0.35974</v>
       </c>
       <c r="I2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q2">
-        <v>0.01184843661111111</v>
+        <v>0.00644262363111111</v>
       </c>
       <c r="R2">
-        <v>0.1066359295</v>
+        <v>0.05798361268</v>
       </c>
       <c r="S2">
-        <v>0.06905501957116475</v>
+        <v>0.03323694323221776</v>
       </c>
       <c r="T2">
-        <v>0.06905501957116475</v>
+        <v>0.03323694323221776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,45 +599,45 @@
         <v>0.35974</v>
       </c>
       <c r="I3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N3">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O3">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P3">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q3">
-        <v>0.00644262363111111</v>
+        <v>0.05363571509777777</v>
       </c>
       <c r="R3">
-        <v>0.05798361268</v>
+        <v>0.4827214358799999</v>
       </c>
       <c r="S3">
-        <v>0.03754887801136704</v>
+        <v>0.2767020580428968</v>
       </c>
       <c r="T3">
-        <v>0.03754887801136705</v>
+        <v>0.2767020580428968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +646,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.1199133333333333</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H4">
-        <v>0.35974</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I4">
-        <v>0.5277983996150155</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J4">
-        <v>0.5277983996150155</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N4">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q4">
-        <v>0.07226840842666667</v>
+        <v>0.01434412345333333</v>
       </c>
       <c r="R4">
-        <v>0.6504156758399999</v>
+        <v>0.12909711108</v>
       </c>
       <c r="S4">
-        <v>0.4211945020324837</v>
+        <v>0.07400010372049952</v>
       </c>
       <c r="T4">
-        <v>0.4211945020324837</v>
+        <v>0.07400010372049952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,179 +708,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H5">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N5">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q5">
-        <v>0.01060035561666667</v>
+        <v>0.1194167722533333</v>
       </c>
       <c r="R5">
-        <v>0.09540320055</v>
+        <v>1.07475095028</v>
       </c>
       <c r="S5">
-        <v>0.06178095799438787</v>
+        <v>0.616060895004386</v>
       </c>
       <c r="T5">
-        <v>0.06178095799438787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.107282</v>
-      </c>
-      <c r="H6">
-        <v>0.321846</v>
-      </c>
-      <c r="I6">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="J6">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.161182</v>
-      </c>
-      <c r="O6">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P6">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q6">
-        <v>0.005763975774666666</v>
-      </c>
-      <c r="R6">
-        <v>0.051875781972</v>
-      </c>
-      <c r="S6">
-        <v>0.03359358479025529</v>
-      </c>
-      <c r="T6">
-        <v>0.03359358479025529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.107282</v>
-      </c>
-      <c r="H7">
-        <v>0.321846</v>
-      </c>
-      <c r="I7">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="J7">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.602672</v>
-      </c>
-      <c r="N7">
-        <v>1.808016</v>
-      </c>
-      <c r="O7">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P7">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q7">
-        <v>0.06465585750400001</v>
-      </c>
-      <c r="R7">
-        <v>0.581902717536</v>
-      </c>
-      <c r="S7">
-        <v>0.3768270576003413</v>
-      </c>
-      <c r="T7">
-        <v>0.3768270576003413</v>
+        <v>0.6160608950043859</v>
       </c>
     </row>
   </sheetData>
